--- a/Output_data/FeatSelectionall_dfs.xlsx
+++ b/Output_data/FeatSelectionall_dfs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\PC_ML_using NetSurfP\Output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79FAAEC-73DC-4791-A494-1F4B1761EC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D969AA6A-F8E3-4B27-B769-C583FF907F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -452,20 +452,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -476,6 +622,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34B4FA70-0D00-4F56-B0AF-DEA29B6C41A5}" name="Table2" displayName="Table2" ref="J2:K102" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="J2:K102" xr:uid="{34B4FA70-0D00-4F56-B0AF-DEA29B6C41A5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:K102">
+    <sortCondition ref="K2:K102"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4B562AFF-DF1D-4849-9AD7-A20D6E7AFFCF}" name="feature"/>
+    <tableColumn id="2" xr3:uid="{96061DDB-870F-42C4-A0ED-C4C1B6FCC7E0}" name="selector rankings"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50D327E1-CE0F-446F-870A-239941DC7762}" name="Table3" displayName="Table3" ref="F2:G122" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="F2:G122" xr:uid="{50D327E1-CE0F-446F-870A-239941DC7762}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:G122">
+    <sortCondition ref="G2:G122"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{76114363-6B7F-4156-BCF1-4599B0A6BAE8}" name="feature"/>
+    <tableColumn id="2" xr3:uid="{5342CDC8-6591-4C68-99D3-FE233DA9DBC4}" name="selector rankings"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69526396-38C7-4FAE-A0D6-F0A260A9C74D}" name="Table4" displayName="Table4" ref="B2:C122" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="B2:C122" xr:uid="{69526396-38C7-4FAE-A0D6-F0A260A9C74D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C122">
+    <sortCondition ref="C2:C122"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{267F923F-6F4F-4EAE-8237-6BB20FEAB592}" name="feature"/>
+    <tableColumn id="2" xr3:uid="{6EF80A0E-06F0-41CF-8C21-F8952DAE94DB}" name="selector rankings"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -799,2290 +987,2300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G102"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="5" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
       <c r="G4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="G14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="G16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C17">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="G17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C18">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C20">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="G20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="G21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C26">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
         <v>15</v>
       </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
       <c r="G27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="G28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C29">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="G31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C33">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C35">
-        <v>24</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C37">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>29</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G40">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C41">
-        <v>17</v>
-      </c>
-      <c r="D41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="G41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>34</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G42">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C43">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C44">
-        <v>29</v>
-      </c>
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="G44">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G45">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C46">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G46">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
         <v>23</v>
       </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>20</v>
-      </c>
-      <c r="D48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J48" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C50">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="J50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C54">
-        <v>27</v>
-      </c>
-      <c r="D54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="G54">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C55">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C56">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="G56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+      <c r="K56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C57">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+      <c r="K57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C59">
-        <v>22</v>
-      </c>
-      <c r="D59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
+        <v>69</v>
+      </c>
+      <c r="K60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>15</v>
       </c>
-      <c r="D61" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61">
-        <v>19</v>
-      </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="G61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>20</v>
-      </c>
-      <c r="D62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C63">
-        <v>30</v>
-      </c>
-      <c r="D63" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G63">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C65">
         <v>16</v>
       </c>
-      <c r="D65" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65">
-        <v>13</v>
-      </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66" t="s">
-        <v>65</v>
-      </c>
-      <c r="E66">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C67">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C68">
-        <v>33</v>
-      </c>
-      <c r="D68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G68">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C70">
         <v>18</v>
       </c>
-      <c r="D70" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70">
-        <v>15</v>
-      </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="G71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>87</v>
+      </c>
+      <c r="K71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C72">
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s">
+        <v>113</v>
+      </c>
+      <c r="K72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C73">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E73">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="G73">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C74">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="G74">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s">
+        <v>82</v>
+      </c>
+      <c r="K74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>96</v>
+      </c>
+      <c r="K75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C76">
-        <v>13</v>
-      </c>
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C77">
-        <v>21</v>
-      </c>
-      <c r="D77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G77">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G78">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>120</v>
+      </c>
+      <c r="K78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G79">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G80">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>35</v>
+      </c>
+      <c r="K80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>78</v>
       </c>
       <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s">
         <v>80</v>
       </c>
-      <c r="C81">
-        <v>20</v>
-      </c>
-      <c r="D81" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81">
+      <c r="G81">
         <v>22</v>
       </c>
-      <c r="F81" t="s">
-        <v>100</v>
-      </c>
-      <c r="G81">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C82">
-        <v>7</v>
-      </c>
-      <c r="D82" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G82">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C83">
-        <v>23</v>
-      </c>
-      <c r="D83" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G83">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+      <c r="K83">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="G84">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J84" t="s">
+        <v>117</v>
+      </c>
+      <c r="K84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="G85">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J85" t="s">
+        <v>41</v>
+      </c>
+      <c r="K85">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C86">
-        <v>14</v>
-      </c>
-      <c r="D86" t="s">
-        <v>85</v>
-      </c>
-      <c r="E86">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J86" t="s">
+        <v>101</v>
+      </c>
+      <c r="K86">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C87">
         <v>24</v>
       </c>
-      <c r="D87" t="s">
-        <v>86</v>
-      </c>
-      <c r="E87">
-        <v>25</v>
-      </c>
       <c r="F87" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+      <c r="K87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88">
-        <v>25</v>
-      </c>
-      <c r="D88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="G88">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J88" t="s">
+        <v>3</v>
+      </c>
+      <c r="K88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C89">
-        <v>17</v>
-      </c>
-      <c r="D89" t="s">
-        <v>88</v>
-      </c>
-      <c r="E89">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G89">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J89" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J90" t="s">
+        <v>99</v>
+      </c>
+      <c r="K90">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C91">
-        <v>7</v>
-      </c>
-      <c r="D91" t="s">
-        <v>90</v>
-      </c>
-      <c r="E91">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J91" t="s">
+        <v>43</v>
+      </c>
+      <c r="K91">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="G92">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J92" t="s">
+        <v>97</v>
+      </c>
+      <c r="K92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C93">
-        <v>14</v>
-      </c>
-      <c r="D93" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="G93">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J93" t="s">
+        <v>116</v>
+      </c>
+      <c r="K93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C94">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G94">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J94" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C95">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>94</v>
-      </c>
-      <c r="E95">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G95">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J95" t="s">
+        <v>115</v>
+      </c>
+      <c r="K95">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="G96">
+        <v>27</v>
+      </c>
+      <c r="J96" t="s">
+        <v>121</v>
+      </c>
+      <c r="K96">
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>21</v>
-      </c>
-      <c r="D97" t="s">
-        <v>96</v>
-      </c>
-      <c r="E97">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="G97">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J97" t="s">
+        <v>100</v>
+      </c>
+      <c r="K97">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C98">
-        <v>31</v>
-      </c>
-      <c r="D98" t="s">
-        <v>97</v>
-      </c>
-      <c r="E98">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="G98">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J98" t="s">
+        <v>107</v>
+      </c>
+      <c r="K98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>35</v>
-      </c>
-      <c r="D99" t="s">
-        <v>98</v>
-      </c>
-      <c r="E99">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <v>28</v>
+      </c>
+      <c r="J99" t="s">
         <v>118</v>
       </c>
-      <c r="G99">
+      <c r="K99">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -3092,287 +3290,287 @@
       <c r="C100">
         <v>28</v>
       </c>
-      <c r="D100" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100">
-        <v>29</v>
-      </c>
       <c r="F100" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="G100">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J100" t="s">
+        <v>98</v>
+      </c>
+      <c r="K100">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C101">
-        <v>33</v>
-      </c>
-      <c r="D101" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G101">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J101" t="s">
+        <v>102</v>
+      </c>
+      <c r="K101">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C102">
-        <v>31</v>
-      </c>
-      <c r="D102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="G102">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J102" t="s">
+        <v>112</v>
+      </c>
+      <c r="K102">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C103">
-        <v>35</v>
-      </c>
-      <c r="D103" t="s">
-        <v>102</v>
-      </c>
-      <c r="E103">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F103" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C104">
-        <v>16</v>
-      </c>
-      <c r="D104" t="s">
-        <v>103</v>
-      </c>
-      <c r="E104">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F104" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="C105">
-        <v>13</v>
-      </c>
-      <c r="D105" t="s">
-        <v>104</v>
-      </c>
-      <c r="E105">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>105</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F106" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>106</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F107" t="s">
+        <v>67</v>
+      </c>
+      <c r="G107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C108">
-        <v>34</v>
-      </c>
-      <c r="D108" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C109">
-        <v>21</v>
-      </c>
-      <c r="D109" t="s">
-        <v>108</v>
-      </c>
-      <c r="E109">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F109" t="s">
+        <v>62</v>
+      </c>
+      <c r="G109">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C110">
-        <v>4</v>
-      </c>
-      <c r="D110" t="s">
-        <v>109</v>
-      </c>
-      <c r="E110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G110">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>110</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F111" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C112">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>111</v>
-      </c>
-      <c r="E112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F112" t="s">
+        <v>116</v>
+      </c>
+      <c r="G112">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C113">
-        <v>35</v>
-      </c>
-      <c r="D113" t="s">
-        <v>112</v>
-      </c>
-      <c r="E113">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
+        <v>118</v>
+      </c>
+      <c r="G113">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C114">
-        <v>25</v>
-      </c>
-      <c r="D114" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F114" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C115">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s">
-        <v>114</v>
-      </c>
-      <c r="E115">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
+        <v>100</v>
+      </c>
+      <c r="G115">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -3382,116 +3580,121 @@
       <c r="C116">
         <v>33</v>
       </c>
-      <c r="D116" t="s">
-        <v>115</v>
-      </c>
-      <c r="E116">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>121</v>
+      </c>
+      <c r="G116">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C117">
-        <v>31</v>
-      </c>
-      <c r="D117" t="s">
-        <v>116</v>
-      </c>
-      <c r="E117">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F117" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C118">
-        <v>26</v>
-      </c>
-      <c r="D118" t="s">
-        <v>117</v>
-      </c>
-      <c r="E118">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F118" t="s">
+        <v>107</v>
+      </c>
+      <c r="G118">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C119">
-        <v>30</v>
-      </c>
-      <c r="D119" t="s">
-        <v>118</v>
-      </c>
-      <c r="E119">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F119" t="s">
+        <v>115</v>
+      </c>
+      <c r="G119">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C120">
-        <v>28</v>
-      </c>
-      <c r="D120" t="s">
-        <v>119</v>
-      </c>
-      <c r="E120">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F120" t="s">
+        <v>98</v>
+      </c>
+      <c r="G120">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C121">
-        <v>24</v>
-      </c>
-      <c r="D121" t="s">
-        <v>120</v>
-      </c>
-      <c r="E121">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F121" t="s">
+        <v>102</v>
+      </c>
+      <c r="G121">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C122">
-        <v>34</v>
-      </c>
-      <c r="D122" t="s">
-        <v>121</v>
-      </c>
-      <c r="E122">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="F122" t="s">
+        <v>112</v>
+      </c>
+      <c r="G122">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>